--- a/Roberto/Kmeans_rts_centroides.xlsx
+++ b/Roberto/Kmeans_rts_centroides.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -385,73 +385,396 @@
       <c r="E1" s="1">
         <v>3</v>
       </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14066738.16837089</v>
+        <v>18.15836302198635</v>
       </c>
       <c r="C2">
-        <v>4203112.685430104</v>
+        <v>0.4218852189891473</v>
       </c>
       <c r="D2">
-        <v>0.0002170291180671191</v>
+        <v>23.48472422562522</v>
       </c>
       <c r="E2">
-        <v>0.9770162386311183</v>
+        <v>37366.40651137208</v>
+      </c>
+      <c r="F2">
+        <v>216169.6182454025</v>
+      </c>
+      <c r="G2">
+        <v>0.2987037897921341</v>
+      </c>
+      <c r="H2">
+        <v>-5347765.172345281</v>
+      </c>
+      <c r="I2">
+        <v>-15193339.49657945</v>
+      </c>
+      <c r="J2">
+        <v>-17614980.60924762</v>
+      </c>
+      <c r="K2">
+        <v>-7431074.834066824</v>
+      </c>
+      <c r="L2">
+        <v>255753.5525194981</v>
+      </c>
+      <c r="M2">
+        <v>-5241446.658168995</v>
+      </c>
+      <c r="N2">
+        <v>2122477.110369311</v>
+      </c>
+      <c r="O2">
+        <v>11006798.04122537</v>
+      </c>
+      <c r="P2">
+        <v>3318335.687626545</v>
+      </c>
+      <c r="Q2">
+        <v>6734751.54669449</v>
+      </c>
+      <c r="R2">
+        <v>-3762138.66073775</v>
+      </c>
+      <c r="S2">
+        <v>0.05481346709289612</v>
+      </c>
+      <c r="T2">
+        <v>1.000015440468033</v>
+      </c>
+      <c r="U2">
+        <v>0.9741663155013598</v>
+      </c>
+      <c r="V2">
+        <v>-557631.4142327512</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>126946105.8632728</v>
+        <v>25.23176688546786</v>
       </c>
       <c r="C3">
-        <v>37663758.25690658</v>
+        <v>0.4328589860839258</v>
       </c>
       <c r="D3">
-        <v>-0.0007141519967473892</v>
+        <v>26.1451324429099</v>
       </c>
       <c r="E3">
-        <v>0.02196520180815864</v>
+        <v>56657.62358715119</v>
+      </c>
+      <c r="F3">
+        <v>966994.3703505436</v>
+      </c>
+      <c r="G3">
+        <v>0.1746461450170992</v>
+      </c>
+      <c r="H3">
+        <v>31666970.92174574</v>
+      </c>
+      <c r="I3">
+        <v>28387663.54873598</v>
+      </c>
+      <c r="J3">
+        <v>53386269.30801539</v>
+      </c>
+      <c r="K3">
+        <v>22142099.83635779</v>
+      </c>
+      <c r="L3">
+        <v>1887876.373088805</v>
+      </c>
+      <c r="M3">
+        <v>15965643.20524842</v>
+      </c>
+      <c r="N3">
+        <v>6233887.711071739</v>
+      </c>
+      <c r="O3">
+        <v>45994182.74405758</v>
+      </c>
+      <c r="P3">
+        <v>14784249.17676328</v>
+      </c>
+      <c r="Q3">
+        <v>19679202.09118719</v>
+      </c>
+      <c r="R3">
+        <v>9545781.679153306</v>
+      </c>
+      <c r="S3">
+        <v>1.301686913861289E-05</v>
+      </c>
+      <c r="T3">
+        <v>-5.34376310168394E-06</v>
+      </c>
+      <c r="U3">
+        <v>0.9753785869244695</v>
+      </c>
+      <c r="V3">
+        <v>1400786.164035053</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>382942373.6527112</v>
+        <v>33.53277187487166</v>
       </c>
       <c r="C4">
-        <v>131398186.9157966</v>
+        <v>0.2817436454310572</v>
       </c>
       <c r="D4">
-        <v>0.9976952963165746</v>
+        <v>15.9360928753165</v>
       </c>
       <c r="E4">
-        <v>0.9706021007251225</v>
+        <v>64337.35640522656</v>
+      </c>
+      <c r="F4">
+        <v>524299.6130527479</v>
+      </c>
+      <c r="G4">
+        <v>0.2722960113536017</v>
+      </c>
+      <c r="H4">
+        <v>267132290.8227386</v>
+      </c>
+      <c r="I4">
+        <v>164730813.674289</v>
+      </c>
+      <c r="J4">
+        <v>467129441.9900981</v>
+      </c>
+      <c r="K4">
+        <v>118985720.9563988</v>
+      </c>
+      <c r="L4">
+        <v>37549116.94441316</v>
+      </c>
+      <c r="M4">
+        <v>93043467.10795318</v>
+      </c>
+      <c r="N4">
+        <v>90217852.83394231</v>
+      </c>
+      <c r="O4">
+        <v>495875486.8179199</v>
+      </c>
+      <c r="P4">
+        <v>166399581.3852738</v>
+      </c>
+      <c r="Q4">
+        <v>303120060.8203181</v>
+      </c>
+      <c r="R4">
+        <v>90931164.83809417</v>
+      </c>
+      <c r="S4">
+        <v>1.000035440435157</v>
+      </c>
+      <c r="T4">
+        <v>-1.556077648123821E-05</v>
+      </c>
+      <c r="U4">
+        <v>0.6170598530450847</v>
+      </c>
+      <c r="V4">
+        <v>30105069.94839487</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>499377388.9696972</v>
+        <v>22.13597548430485</v>
       </c>
       <c r="C5">
-        <v>166038027.0219767</v>
+        <v>0.02344009951816234</v>
       </c>
       <c r="D5">
-        <v>1.003752480035025</v>
+        <v>3.335268450436146</v>
       </c>
       <c r="E5">
-        <v>0.007313141578884741</v>
+        <v>3065.852859583278</v>
+      </c>
+      <c r="F5">
+        <v>592642.9443201474</v>
+      </c>
+      <c r="G5">
+        <v>0.1722597317872391</v>
+      </c>
+      <c r="H5">
+        <v>127364034.8896078</v>
+      </c>
+      <c r="I5">
+        <v>145764300.8558406</v>
+      </c>
+      <c r="J5">
+        <v>251094288.511337</v>
+      </c>
+      <c r="K5">
+        <v>92065990.78079171</v>
+      </c>
+      <c r="L5">
+        <v>6723355.420845527</v>
+      </c>
+      <c r="M5">
+        <v>73218134.2811463</v>
+      </c>
+      <c r="N5">
+        <v>13430001.33755424</v>
+      </c>
+      <c r="O5">
+        <v>88752491.04570632</v>
+      </c>
+      <c r="P5">
+        <v>25285874.86387409</v>
+      </c>
+      <c r="Q5">
+        <v>49897348.18053333</v>
+      </c>
+      <c r="R5">
+        <v>36243944.97396006</v>
+      </c>
+      <c r="S5">
+        <v>-7.582579447956705E-05</v>
+      </c>
+      <c r="T5">
+        <v>3.779943746001768E-05</v>
+      </c>
+      <c r="U5">
+        <v>0.01269993039409079</v>
+      </c>
+      <c r="V5">
+        <v>7655273.781004048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>15.99787159206357</v>
+      </c>
+      <c r="C6">
+        <v>0.02489550256318762</v>
+      </c>
+      <c r="D6">
+        <v>0.3678986677564496</v>
+      </c>
+      <c r="E6">
+        <v>-16561.71700060034</v>
+      </c>
+      <c r="F6">
+        <v>-238137.0561644865</v>
+      </c>
+      <c r="G6">
+        <v>0.3134219359061663</v>
+      </c>
+      <c r="H6">
+        <v>43230972.26577713</v>
+      </c>
+      <c r="I6">
+        <v>67975607.40837164</v>
+      </c>
+      <c r="J6">
+        <v>94327797.59160568</v>
+      </c>
+      <c r="K6">
+        <v>41782798.72548055</v>
+      </c>
+      <c r="L6">
+        <v>657122.3359732471</v>
+      </c>
+      <c r="M6">
+        <v>29271036.61069764</v>
+      </c>
+      <c r="N6">
+        <v>-150550.0180794153</v>
+      </c>
+      <c r="O6">
+        <v>1468355.00066305</v>
+      </c>
+      <c r="P6">
+        <v>-2538424.031841083</v>
+      </c>
+      <c r="Q6">
+        <v>4575788.088515717</v>
+      </c>
+      <c r="R6">
+        <v>15756129.55339045</v>
+      </c>
+      <c r="S6">
+        <v>0.07007048990549904</v>
+      </c>
+      <c r="T6">
+        <v>0.9999269308189487</v>
+      </c>
+      <c r="U6">
+        <v>0.01967338341087754</v>
+      </c>
+      <c r="V6">
+        <v>3841412.111386801</v>
       </c>
     </row>
   </sheetData>
